--- a/系统测试/测试计划.xlsx
+++ b/系统测试/测试计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="8505" windowHeight="4530" tabRatio="521" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="8505" windowHeight="4530" tabRatio="521" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="变更记录" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="252">
   <si>
     <t>预置条件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,10 +106,6 @@
   <si>
     <t>注册弹框加载成功</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、点击用户名的文本框                 2、输入已注册的用户名：htx             3、点击密码文本框                     4、输入与用户名匹配的正确的密码123456h                            5、点击“登录”按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -405,22 +401,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>1、点击用户名的文本框                 2、输入未被注册过的不超过10位的合法用户名：htxhtx                   3、点击密码文本框                     4、输入超过18位的密码：123456789h123456789                            5、点击“确认密码”文本框        6、输入和密码框里输入一样的密码：123456789h123456789                        7、点击“注册”按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、点击用户名的文本框                 2、输入未被注册过的不超过10位的合法用户名：htxhtx                   3、点击密码文本框                     4、输入不少于6位不超过18位的合法密码：123456h                            5、点击“确认密码”文本框        6、输入和密码框里输入一样的密码：123456h                        7、点击“注册”按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、点击用户名的文本框                 2、输入未被注册过的不超过10位的合法用户名：htxhtx                   3、点击密码文本框                     4、输入不少于6位不超过18位的合法密码：123456h                            5、点击“确认密码”文本框        6、输入和密码框里输入不一样的不少于6位不超过18位合法密码：123456htx                        7、点击“注册”按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、点击用户名的文本框                 2、输入未被注册过的不超过10位的合法用户名：htxhtx                   3、点击密码文本框                     4、输入少于6位的合法密码：123                            5、点击“确认密码”文本框        6、输入和密码框里输入一样的密码：123                            7、点击“注册”按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>“密码不能低于6位”提示</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -429,18 +409,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>1、点击用户名的文本框                 2、输入未被注册过的不超过10位的合法用户名：htxhtx                   3、点击“注册”按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、点击用户名的文本框                 2、输入未被注册过的不超过10位的合法用户名：htxhtx                   3、点击密码文本框                     4、输入空格+不少于6位不超过18位的合法密码： 123456h                            5、点击“确认密码”文本框        6、输入和密码框里输入一样的密码： 123456h                        7、点击“注册”按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、点击用户名的文本框                 2、输入未被注册过的不超过10位的合法用户名：htxhtx                   3、点击密码文本框                     4、输入不少于6位不超过18位的合法密码中间嵌套空格：1 23456h                            5、点击“确认密码”文本框        6、输入和密码框里输入一样的密码：1 23456h                        7、点击“注册”按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1、点击用户名的文本框                 2、输入被注册过的用户名：htx                   3、点击密码文本框                     4、输入不少于6位不超过18位的合法密码：123456h                            5、点击“确认密码”文本框        6、输入和密码框里输入一样的密码：123456h                        7、点击“注册”按钮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -449,10 +417,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>1、点击用户名的文本框                 2、输入未被注册过的超过10位的合法用户名：htxhtxhtxhtx                   3、点击密码文本框                     4、输入不少于6位不超过18位的合法密码：123456h                            5、点击“确认密码”文本框        6、输入和密码框里输入一样的密码：123456h                        7、点击“注册”按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>“用户名不能超过10位”提示框</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -469,20 +433,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、点击用户名的文本框                 2、输入空白+未注册过的小于6位的用户名： hhh                      3、点击密码文本框                     4、输入不少于6位不超过18位的合法密码：123456h                            5、点击“确认密码”文本框        6、输入和密码框里输入一样的密码：123456h                        7、点击“注册”按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>“用户名包含特殊字符不合法”提示</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、点击用户名的文本框                 2、输入未注册过的小于6位的用户名+空格：hhh                       3、点击密码文本框                     4、输入不少于6位不超过18位的合法密码：123456h                            5、点击“确认密码”文本框        6、输入和密码框里输入一样的密码：123456h                        7、点击“注册”按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、点击用户名的文本框                 2、输入未注册过的小于6位的用户名中嵌套空格：zx zx                       3、点击密码文本框                     4、输入不少于6位不超过18位的合法密码：123456h                            5、点击“确认密码”文本框        6、输入和密码框里输入一样的密码：123456h                        7、点击“注册”按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>登录</t>
@@ -995,10 +947,6 @@
   <si>
     <t>2-5-B</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、点击用户名的文本框                 2、输入未被注册过的不超过10位的合法用户名：htxhtx                   3、点击密码文本框                     4、输入不少于6位不超过18位的合法密码+空格：123456h                             5、点击“确认密码”文本框        6、输入和密码框里输入一样的密码：123456h                         7、点击“注册”按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2-5-C</t>
@@ -1408,6 +1356,74 @@
   <si>
     <t>隐藏早时间消息</t>
     <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、点击用户名的文本框                 2、输入已注册的用户名：htx             3、点击密码文本框                     4、输入与用户名匹配的正确的密码123456h                            5、点击“登录”按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、点击用户名的文本框                 2、输入未被注册过的不超过10位的合法用户名：tester1                   3、点击密码文本框                     4、输入不少于6位不超过18位的合法密码：123456h                            5、点击“确认密码”文本框        6、输入和密码框里输入一样的密码：123456h                        7、点击“注册”按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、点击用户名的文本框                 2、输入未被注册过的不超过10位的合法用户名：tester2                   3、点击密码文本框                     4、输入不少于6位不超过18位的合法密码：123456h                            5、点击“确认密码”文本框        6、输入和密码框里输入不一样的不少于6位不超过18位合法密码：123456htx                        7、点击“注册”按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、点击用户名的文本框                 2、输入未被注册过的不超过10位的合法用户名：tester3                   3、点击密码文本框                     4、输入超过18位的密码：123456789h123456789                            5、点击“确认密码”文本框        6、输入和密码框里输入一样的密码：123456789h123456789                        7、点击“注册”按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、点击用户名的文本框                 2、输入未被注册过的不超过10位的合法用户名：tester4                  3、点击密码文本框                     4、输入少于6位的合法密码：123                            5、点击“确认密码”文本框        6、输入和密码框里输入一样的密码：123                            7、点击“注册”按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、点击用户名的文本框                 2、输入未被注册过的不超过10位的合法用户名：tester5                   3、点击“注册”按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、点击用户名的文本框                 2、输入未被注册过的不超过10位的合法用户名：tester6                   3、点击密码文本框                     4、输入空格+不少于6位不超过18位的合法密码： 123456h                            5、点击“确认密码”文本框        6、输入和密码框里输入一样的密码： 123456h                        7、点击“注册”按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、点击用户名的文本框                 2、输入未被注册过的不超过10位的合法用户名：tester7                   3、点击密码文本框                     4、输入不少于6位不超过18位的合法密码中间嵌套空格：1 23456h                            5、点击“确认密码”文本框        6、输入和密码框里输入一样的密码：1 23456h                        7、点击“注册”按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、点击用户名的文本框                 2、输入未被注册过的不超过10位的合法用户名：tester8                   3、点击密码文本框                     4、输入不少于6位不超过18位的合法密码+空格：123456h                             5、点击“确认密码”文本框        6、输入和密码框里输入一样的密码：123456h                         7、点击“注册”按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、点击用户名的文本框                 2、输入未被注册过的超过10位的合法用户名：testertestertester                   3、点击密码文本框                     4、输入不少于6位不超过18位的合法密码：123456h                            5、点击“确认密码”文本框        6、输入和密码框里输入一样的密码：123456h                        7、点击“注册”按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、点击用户名的文本框                 2、输入空白+未注册过的小于6位的用户名： tester9                      3、点击密码文本框                     4、输入不少于6位不超过18位的合法密码：123456h                            5、点击“确认密码”文本框        6、输入和密码框里输入一样的密码：123456h                        7、点击“注册”按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、点击用户名的文本框                 2、输入未注册过的小于6位的用户名+空格：tester10                       3、点击密码文本框                     4、输入不少于6位不超过18位的合法密码：123456h                            5、点击“确认密码”文本框        6、输入和密码框里输入一样的密码：123456h                        7、点击“注册”按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、点击用户名的文本框                 2、输入未注册过的小于6位的用户名中嵌套空格：tester tester                       3、点击密码文本框                     4、输入不少于6位不超过18位的合法密码：123456h                            5、点击“确认密码”文本框        6、输入和密码框里输入一样的密码：123456h                        7、点击“注册”按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网页版否（空格被自动剔除）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1711,7 +1727,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1818,6 +1834,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1833,23 +1861,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1866,8 +1885,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2175,7 +2194,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2228,35 +2247,35 @@
         <v>43454</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1">
       <c r="A5" s="20" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="B5" s="23">
         <v>43460</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1">
       <c r="A6" s="20" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="B6" s="23">
         <v>43469</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="D6" s="13"/>
     </row>
@@ -2313,7 +2332,7 @@
     <row r="1" spans="1:5" ht="15" thickBot="1"/>
     <row r="2" spans="1:5" ht="15.75" thickTop="1" thickBot="1">
       <c r="A2" s="38" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
@@ -2328,7 +2347,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
@@ -2338,10 +2357,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -2351,10 +2370,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -2364,10 +2383,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -2377,10 +2396,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -2390,10 +2409,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -2403,10 +2422,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -2416,10 +2435,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -2439,8 +2458,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J151"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2457,395 +2476,395 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="H1" s="40" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="25"/>
       <c r="J1" s="25"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="46"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="41"/>
       <c r="I2" s="25"/>
       <c r="J2" s="25"/>
     </row>
     <row r="3" spans="1:10" ht="60">
       <c r="A3" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="44" t="s">
+      <c r="C3" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="48" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>21</v>
+        <v>235</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" s="32" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I3" s="25"/>
       <c r="J3" s="25"/>
     </row>
     <row r="4" spans="1:10" ht="48">
       <c r="A4" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
+        <v>29</v>
+      </c>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
       <c r="E4" s="25" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G4" s="32" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I4" s="25"/>
       <c r="J4" s="25"/>
     </row>
     <row r="5" spans="1:10" ht="48">
       <c r="A5" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
+        <v>30</v>
+      </c>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
       <c r="E5" s="25" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G5" s="32" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="60">
       <c r="A6" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
+        <v>32</v>
+      </c>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
       <c r="E6" s="25" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="60">
       <c r="A7" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
+        <v>49</v>
+      </c>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
       <c r="E7" s="25" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G7" s="32" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="48">
       <c r="A8" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
+        <v>51</v>
+      </c>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
       <c r="E8" s="25" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="60">
       <c r="A9" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
+        <v>34</v>
+      </c>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
       <c r="E9" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G9" s="32" t="s">
-        <v>169</v>
+        <v>248</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I9" s="25"/>
       <c r="J9" s="25"/>
     </row>
     <row r="10" spans="1:10" ht="60">
       <c r="A10" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
+        <v>35</v>
+      </c>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
       <c r="E10" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="60">
       <c r="A11" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
+        <v>36</v>
+      </c>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
       <c r="E11" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="G11" s="32" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="H11" s="34" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="60">
       <c r="A12" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
+        <v>48</v>
+      </c>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
       <c r="E12" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G12" s="32" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="60">
       <c r="A13" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
+        <v>46</v>
+      </c>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
       <c r="E13" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G13" s="32" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="72">
       <c r="A14" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
+        <v>47</v>
+      </c>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
       <c r="E14" s="25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G14" s="32" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="72">
       <c r="A15" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
+        <v>37</v>
+      </c>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
       <c r="E15" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G15" s="32" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="60">
       <c r="A16" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
+        <v>53</v>
+      </c>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
       <c r="E16" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G16" s="32" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="H16" s="34" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="60">
       <c r="A17" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
+        <v>56</v>
+      </c>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
       <c r="E17" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G17" s="32" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="72">
       <c r="A18" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
+        <v>54</v>
+      </c>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
       <c r="E18" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G18" s="32" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="72">
       <c r="A19" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
+        <v>55</v>
+      </c>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
       <c r="E19" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G19" s="32" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -4142,17 +4161,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="G1:G2"/>
     <mergeCell ref="B3:B19"/>
     <mergeCell ref="C3:C19"/>
     <mergeCell ref="D3:D19"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4165,8 +4184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H151"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4182,315 +4201,345 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="40" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="H1" s="40" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
       <c r="G2" s="50"/>
-      <c r="H2" s="46"/>
+      <c r="H2" s="41"/>
     </row>
     <row r="3" spans="1:8" ht="120">
       <c r="A3" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="B3" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="D3" s="44" t="s">
+      <c r="C3" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="48" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>62</v>
+        <v>236</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="3"/>
+        <v>58</v>
+      </c>
+      <c r="G3" s="57" t="s">
+        <v>249</v>
+      </c>
       <c r="H3" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="132">
       <c r="A4" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
+        <v>159</v>
+      </c>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
       <c r="E4" s="25" t="s">
-        <v>63</v>
+        <v>237</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="3"/>
+        <v>59</v>
+      </c>
+      <c r="G4" s="57" t="s">
+        <v>249</v>
+      </c>
       <c r="H4" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="120">
       <c r="A5" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="G5" s="57" t="s">
+        <v>249</v>
+      </c>
+      <c r="H5" s="34" t="s">
         <v>173</v>
-      </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="34" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="108">
       <c r="A6" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
+        <v>162</v>
+      </c>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
       <c r="E6" s="25" t="s">
-        <v>64</v>
+        <v>239</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G6" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="G6" s="57" t="s">
+        <v>249</v>
+      </c>
       <c r="H6" s="35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="72">
       <c r="A7" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
+        <v>164</v>
+      </c>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
       <c r="E7" s="25" t="s">
-        <v>67</v>
+        <v>240</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G7" s="3"/>
+        <v>61</v>
+      </c>
+      <c r="G7" s="57" t="s">
+        <v>249</v>
+      </c>
       <c r="H7" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="120">
       <c r="A8" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
+        <v>160</v>
+      </c>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
       <c r="E8" s="25" t="s">
-        <v>68</v>
+        <v>241</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="G8" s="3"/>
+        <v>174</v>
+      </c>
+      <c r="G8" s="57" t="s">
+        <v>249</v>
+      </c>
       <c r="H8" s="35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="120">
       <c r="A9" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
+        <v>165</v>
+      </c>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
       <c r="E9" s="25" t="s">
-        <v>69</v>
+        <v>242</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="G9" s="3"/>
+        <v>174</v>
+      </c>
+      <c r="G9" s="57" t="s">
+        <v>249</v>
+      </c>
       <c r="H9" s="35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="120">
       <c r="A10" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
+        <v>166</v>
+      </c>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
       <c r="E10" s="25" t="s">
-        <v>178</v>
+        <v>243</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="G10" s="3"/>
+        <v>174</v>
+      </c>
+      <c r="G10" s="57" t="s">
+        <v>249</v>
+      </c>
       <c r="H10" s="35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="108">
       <c r="A11" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
+        <v>167</v>
+      </c>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
       <c r="E11" s="25" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G11" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="G11" s="57" t="s">
+        <v>249</v>
+      </c>
       <c r="H11" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="120">
       <c r="A12" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
+        <v>163</v>
+      </c>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
       <c r="E12" s="25" t="s">
-        <v>72</v>
+        <v>244</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="3"/>
+        <v>64</v>
+      </c>
+      <c r="G12" s="57" t="s">
+        <v>249</v>
+      </c>
       <c r="H12" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="108">
       <c r="A13" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
+        <v>169</v>
+      </c>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
       <c r="E13" s="3" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="G13" s="3"/>
+        <v>175</v>
+      </c>
+      <c r="G13" s="57" t="s">
+        <v>249</v>
+      </c>
       <c r="H13" s="3" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="120">
       <c r="A14" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
+        <v>168</v>
+      </c>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
       <c r="E14" s="25" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="3"/>
+        <v>68</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>248</v>
+      </c>
       <c r="H14" s="27" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="120">
       <c r="A15" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
+        <v>170</v>
+      </c>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
       <c r="E15" s="25" t="s">
-        <v>77</v>
+        <v>245</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="G15" s="3"/>
+        <v>176</v>
+      </c>
+      <c r="G15" s="57" t="s">
+        <v>249</v>
+      </c>
       <c r="H15" s="28" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="120">
       <c r="A16" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
+        <v>171</v>
+      </c>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
       <c r="E16" s="25" t="s">
-        <v>79</v>
+        <v>246</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="G16" s="3"/>
+        <v>176</v>
+      </c>
+      <c r="G16" s="57" t="s">
+        <v>249</v>
+      </c>
       <c r="H16" s="28" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="120">
       <c r="A17" s="25" t="s">
-        <v>191</v>
-      </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
+        <v>178</v>
+      </c>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
       <c r="E17" s="25" t="s">
-        <v>80</v>
+        <v>247</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="G17" s="3"/>
+        <v>179</v>
+      </c>
+      <c r="G17" s="57" t="s">
+        <v>249</v>
+      </c>
       <c r="H17" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -5856,8 +5905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H151"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5873,103 +5922,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="40" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="H1" s="40" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
       <c r="G2" s="50"/>
-      <c r="H2" s="46"/>
+      <c r="H2" s="41"/>
     </row>
     <row r="3" spans="1:8" ht="36">
       <c r="A3" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>96</v>
+        <v>86</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>84</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="G3" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="G3" s="57" t="s">
+        <v>251</v>
+      </c>
       <c r="H3" s="25" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="48">
       <c r="A4" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
+        <v>93</v>
+      </c>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
       <c r="D4" s="25" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="G4" s="3"/>
+        <v>90</v>
+      </c>
+      <c r="G4" s="57" t="s">
+        <v>251</v>
+      </c>
       <c r="H4" s="25" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="48">
       <c r="A5" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
+        <v>94</v>
+      </c>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
       <c r="D5" s="25" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="G5" s="3"/>
+        <v>92</v>
+      </c>
+      <c r="G5" s="57" t="s">
+        <v>251</v>
+      </c>
       <c r="H5" s="25" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -7454,8 +7509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H151"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7471,83 +7526,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="40" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="H1" s="40" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
       <c r="G2" s="50"/>
-      <c r="H2" s="46"/>
+      <c r="H2" s="41"/>
     </row>
     <row r="3" spans="1:8" ht="24">
       <c r="A3" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="B3" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>113</v>
+        <v>96</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>101</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="G3" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="G3" s="57" t="s">
+        <v>250</v>
+      </c>
       <c r="H3" s="25" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="24">
       <c r="A4" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
+        <v>104</v>
+      </c>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
       <c r="D4" s="25" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="G4" s="3"/>
+        <v>103</v>
+      </c>
+      <c r="G4" s="57" t="s">
+        <v>250</v>
+      </c>
       <c r="H4" s="25" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -9042,8 +9101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H151"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9059,451 +9118,451 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="40" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="H1" s="40" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
       <c r="G2" s="50"/>
-      <c r="H2" s="46"/>
+      <c r="H2" s="41"/>
     </row>
     <row r="3" spans="1:8" ht="24">
       <c r="A3" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" s="51" t="s">
-        <v>120</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>193</v>
+        <v>109</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>180</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="24">
       <c r="A4" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="43"/>
+        <v>114</v>
+      </c>
+      <c r="B4" s="53"/>
+      <c r="C4" s="47"/>
       <c r="D4" s="25" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="204">
       <c r="A5" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="44" t="s">
-        <v>203</v>
+        <v>128</v>
+      </c>
+      <c r="B5" s="54"/>
+      <c r="C5" s="48" t="s">
+        <v>190</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="25" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="96">
       <c r="A6" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="42"/>
+        <v>115</v>
+      </c>
+      <c r="B6" s="54"/>
+      <c r="C6" s="46"/>
       <c r="D6" s="25" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="36">
       <c r="A7" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="43"/>
+        <v>123</v>
+      </c>
+      <c r="B7" s="54"/>
+      <c r="C7" s="47"/>
       <c r="D7" s="25" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="60">
       <c r="A8" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="B8" s="53"/>
-      <c r="C8" s="44" t="s">
-        <v>204</v>
+        <v>120</v>
+      </c>
+      <c r="B8" s="54"/>
+      <c r="C8" s="48" t="s">
+        <v>191</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="25" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="60">
       <c r="A9" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="54"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="F9" s="25" t="s">
         <v>134</v>
-      </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>146</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="25" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="60">
       <c r="A10" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="56"/>
+        <v>125</v>
+      </c>
+      <c r="B10" s="55"/>
+      <c r="C10" s="51"/>
       <c r="D10" s="25" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="25" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="60">
       <c r="A11" s="25" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="C11" s="44" t="s">
-        <v>205</v>
+      <c r="C11" s="48" t="s">
+        <v>192</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="25" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="60">
       <c r="A12" s="25" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="B12" s="3"/>
-      <c r="C12" s="41"/>
+      <c r="C12" s="45"/>
       <c r="D12" s="25" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="25" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="60">
       <c r="A13" s="25" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13" s="56"/>
+      <c r="C13" s="51"/>
       <c r="D13" s="25" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="25" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="72">
       <c r="A14" s="25" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B14" s="3"/>
-      <c r="C14" s="44" t="s">
-        <v>209</v>
+      <c r="C14" s="48" t="s">
+        <v>196</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="25" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="72">
       <c r="A15" s="25" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="B15" s="3"/>
-      <c r="C15" s="41"/>
+      <c r="C15" s="45"/>
       <c r="D15" s="33" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="25" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="72">
       <c r="A16" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="E16" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="E16" s="25" t="s">
+      <c r="F16" s="25" t="s">
         <v>219</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>232</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="25" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="156">
       <c r="A17" s="25" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="B17" s="3"/>
-      <c r="C17" s="44" t="s">
-        <v>224</v>
+      <c r="C17" s="48" t="s">
+        <v>211</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="25" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="156">
       <c r="A18" s="25" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="B18" s="3"/>
-      <c r="C18" s="41"/>
+      <c r="C18" s="45"/>
       <c r="D18" s="33" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="25" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="156">
       <c r="A19" s="25" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="B19" s="3"/>
-      <c r="C19" s="56"/>
+      <c r="C19" s="51"/>
       <c r="D19" s="33" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="25" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="48">
       <c r="A20" s="25" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="B20" s="3"/>
-      <c r="C20" s="44" t="s">
-        <v>228</v>
+      <c r="C20" s="48" t="s">
+        <v>215</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="25" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="48">
       <c r="A21" s="25" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="B21" s="3"/>
-      <c r="C21" s="41"/>
+      <c r="C21" s="45"/>
       <c r="D21" s="33" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="25" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="48">
       <c r="A22" s="25" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="B22" s="3"/>
-      <c r="C22" s="56"/>
+      <c r="C22" s="51"/>
       <c r="D22" s="33" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="25" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -10788,11 +10847,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="B3:B10"/>
@@ -10804,6 +10858,11 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10815,7 +10874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -10832,183 +10891,183 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="40" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="H1" s="40" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
       <c r="G2" s="50"/>
-      <c r="H2" s="46"/>
+      <c r="H2" s="41"/>
     </row>
     <row r="3" spans="1:8" ht="43.5" customHeight="1">
       <c r="A3" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="B3" s="51" t="s">
-        <v>120</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>153</v>
+        <v>136</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>141</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="G3" s="32" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="H3" s="32" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="36">
       <c r="A4" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="42"/>
+        <v>144</v>
+      </c>
+      <c r="B4" s="56"/>
+      <c r="C4" s="46"/>
       <c r="D4" s="29" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="G4" s="32" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="H4" s="32" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="36">
       <c r="A5" s="32" t="s">
-        <v>237</v>
-      </c>
-      <c r="B5" s="51" t="s">
-        <v>120</v>
-      </c>
-      <c r="C5" s="44" t="s">
-        <v>238</v>
+        <v>224</v>
+      </c>
+      <c r="B5" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>225</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="G5" s="32" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="36">
       <c r="A6" s="32" t="s">
-        <v>241</v>
-      </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="43"/>
+        <v>228</v>
+      </c>
+      <c r="B6" s="56"/>
+      <c r="C6" s="47"/>
       <c r="D6" s="33" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="36">
       <c r="A7" s="32" t="s">
-        <v>243</v>
-      </c>
-      <c r="B7" s="51" t="s">
-        <v>120</v>
-      </c>
-      <c r="C7" s="44" t="s">
-        <v>245</v>
+        <v>230</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>232</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="G7" s="32" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="36">
       <c r="A8" s="32" t="s">
-        <v>244</v>
-      </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="43"/>
+        <v>231</v>
+      </c>
+      <c r="B8" s="56"/>
+      <c r="C8" s="47"/>
       <c r="D8" s="33" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -12436,11 +12495,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
@@ -12450,6 +12504,11 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12461,7 +12520,7 @@
   <dimension ref="A1:H151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -12477,65 +12536,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="40" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="H1" s="40" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
       <c r="G2" s="50"/>
-      <c r="H2" s="46"/>
+      <c r="H2" s="41"/>
     </row>
     <row r="3" spans="1:8" ht="24">
       <c r="A3" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B3" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>157</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>160</v>
-      </c>
       <c r="G3" s="25" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:8">
